--- a/EXCEL REPORT/WAREHOUSE.xlsx
+++ b/EXCEL REPORT/WAREHOUSE.xlsx
@@ -173,7 +173,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="19">
     <font>
@@ -682,16 +682,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -699,7 +698,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1042,7 +1040,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1061,77 +1059,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75">
-      <c r="A1" s="4"/>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="2"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="B10" s="6"/>
+      <c r="B10" s="5"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="J11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="6" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1170,7 +1167,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="8" customFormat="1" ht="30">
+    <row r="13" spans="1:11" s="7" customFormat="1" ht="30">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -1251,96 +1248,95 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection sqref="A1:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.140625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="16" style="8" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="23" style="8" customWidth="1"/>
-    <col min="9" max="9" width="16" style="8" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="8" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" style="8" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="16" style="7" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="23" style="7" customWidth="1"/>
+    <col min="9" max="9" width="16" style="7" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="7" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75">
-      <c r="A1" s="10"/>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="2"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="10" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="B8" s="12" t="s">
+      <c r="A8" s="10" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="B9" s="12" t="s">
+      <c r="A9" s="10" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="B10" s="12"/>
+      <c r="B10" s="10"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="9" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1459,96 +1455,94 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.140625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="16" style="8" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="23" style="8" customWidth="1"/>
-    <col min="9" max="9" width="16" style="8" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="8" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" style="8" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="16" style="7" customWidth="1"/>
+    <col min="6" max="7" width="18.5703125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" style="7" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" style="7" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75">
-      <c r="A1" s="10"/>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="2"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="10" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="B8" s="12" t="s">
+      <c r="A8" s="10" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="B9" s="12" t="s">
+      <c r="A9" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="B10" s="12"/>
+      <c r="B10" s="10"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="9" t="s">
         <v>19</v>
       </c>
     </row>
